--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_15.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>74172.91276751252</v>
+        <v>129977.5518194288</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17257637.27977393</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484438</v>
+        <v>492028.9342484442</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8447620.031363931</v>
+        <v>8454212.828434281</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>36.04569917734566</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>334.7850776714731</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -829,13 +829,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>142.0902352657462</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>70.48957194523996</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>330.169834715921</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>279.2525483083232</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>110.2398163853292</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>39.88277234054659</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>55.14173806463723</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -1139,19 +1139,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>61.91044193078682</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>95.65936636201577</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>90.30617524481291</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>33.08339867820277</v>
       </c>
       <c r="T11" t="n">
-        <v>200.0316332383091</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.0567773522574</v>
+        <v>61.08641542222901</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1588,7 +1588,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>31.99360936800004</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>90.97964783089149</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1765,7 +1765,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>143.8427601615725</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1774,7 +1774,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>22.28534392847747</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>154.4380635245693</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1859,10 +1859,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112165</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1901,7 +1901,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>173.1178350778194</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2008,10 +2008,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>113.5770391806066</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
@@ -2020,7 +2020,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>104.6990987647607</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2068,7 +2068,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2096,10 +2096,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>274.1806321016762</v>
+        <v>18.64034175572573</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2242,7 +2242,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2251,13 +2251,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>103.8284742946041</v>
+        <v>205.7065470899267</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2485,10 +2485,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>130.6556207749494</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2533,10 +2533,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>166.3197703738373</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2725,10 +2725,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>43.48898701015895</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225785</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>50.30825486907155</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>136.0564930767007</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3284,7 +3284,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932887</v>
       </c>
       <c r="F38" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.40273359886993</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4539333765603</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.2363335358519</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="T40" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>152.680515628699</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.5252156407902</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.3484266092796</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.0243759141564</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.176133815753</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>396.9712315838374</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.40273359887</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.5781590863804</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,22 +3895,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.4878110526659</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.423472922476</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>163.8065913913612</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>167.6478022326388</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.52736201873</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>26.24351759540713</v>
+        <v>18.05677735225773</v>
       </c>
       <c r="T43" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.2360492602944</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>283.6733315691425</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.3484266092796</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.0243759141564</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.176133815753</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>396.9712315838374</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.40273359887</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.5781590863804</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,22 +4132,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.4878110526659</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.423472922476</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>163.8065913913612</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>167.6478022326388</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.52736201873</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>26.24351759540803</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.2360492602944</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>283.6733315691425</v>
+        <v>144.4937753855484</v>
       </c>
       <c r="W46" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1248.044874488545</v>
+        <v>980.7537922278733</v>
       </c>
       <c r="C2" t="n">
-        <v>1213.942805712373</v>
+        <v>542.6113194112966</v>
       </c>
       <c r="D2" t="n">
-        <v>1182.073424927221</v>
+        <v>510.7419386261452</v>
       </c>
       <c r="E2" t="n">
-        <v>1152.33908412592</v>
+        <v>474.3321414773112</v>
       </c>
       <c r="F2" t="n">
-        <v>724.4716545351282</v>
+        <v>450.5051159269229</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>49.10728455018683</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018683</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018683</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031047</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>524.306084180566</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>524.306084180566</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>524.306084180566</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>524.306084180566</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489128</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.71137679769</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756284</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509341</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>2455.364227509341</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>2235.29700038238</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>2235.29700038238</v>
       </c>
       <c r="V2" t="n">
-        <v>1613.531556264254</v>
+        <v>2235.29700038238</v>
       </c>
       <c r="W2" t="n">
-        <v>1612.716505715692</v>
+        <v>1830.441545793413</v>
       </c>
       <c r="X2" t="n">
-        <v>1274.549760592992</v>
+        <v>1815.339486413128</v>
       </c>
       <c r="Y2" t="n">
-        <v>1270.304040933049</v>
+        <v>1407.053362712781</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414796</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>448.8225683781219</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246752</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>259.6118648516289</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677905</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>90.84293673397435</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018683</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064443</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985419</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.068709842022</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212428</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1113.00182921349</v>
+        <v>734.0120466529457</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>561.4503351361707</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>395.5723423376934</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>225.8143385884306</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>49.10728455018683</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>49.10728455018683</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>49.10728455018683</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018683</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>49.10728455018683</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>323.8657391213224</v>
       </c>
       <c r="L4" t="n">
-        <v>688.8848573262783</v>
+        <v>742.0756208892834</v>
       </c>
       <c r="M4" t="n">
-        <v>1108.937756271182</v>
+        <v>1201.559488070196</v>
       </c>
       <c r="N4" t="n">
-        <v>1528.990655216085</v>
+        <v>1643.818291227841</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>2063.487540453623</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2410.994434423965</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509341</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2433.946406214713</v>
       </c>
       <c r="S4" t="n">
-        <v>1532.240118618369</v>
+        <v>2274.70503751271</v>
       </c>
       <c r="T4" t="n">
-        <v>1532.240118618369</v>
+        <v>2028.825591091165</v>
       </c>
       <c r="U4" t="n">
-        <v>1532.240118618369</v>
+        <v>1957.62400326769</v>
       </c>
       <c r="V4" t="n">
-        <v>1532.240118618369</v>
+        <v>1670.668495138121</v>
       </c>
       <c r="W4" t="n">
-        <v>1532.240118618369</v>
+        <v>1398.642090724412</v>
       </c>
       <c r="X4" t="n">
-        <v>1532.240118618369</v>
+        <v>1153.250336057825</v>
       </c>
       <c r="Y4" t="n">
-        <v>1304.820447932477</v>
+        <v>925.8306653719328</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1343.515716940192</v>
+        <v>1382.829461272046</v>
       </c>
       <c r="C5" t="n">
-        <v>914.93404267746</v>
+        <v>1348.727392495873</v>
       </c>
       <c r="D5" t="n">
-        <v>486.3523684147282</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1702.263968216353</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1687.161908836068</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>1405.08862771655</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>885.9154747824084</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>885.9154747824084</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2608.357376509985</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>2362.477930088441</v>
       </c>
       <c r="U7" t="n">
-        <v>1172.870982911978</v>
+        <v>2084.044929341546</v>
       </c>
       <c r="V7" t="n">
-        <v>885.9154747824084</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="W7" t="n">
-        <v>885.9154747824084</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>885.9154747824084</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>885.9154747824084</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1773.090257699614</v>
+        <v>1270.144995079233</v>
       </c>
       <c r="C8" t="n">
-        <v>1334.947784883037</v>
+        <v>832.0025222626568</v>
       </c>
       <c r="D8" t="n">
-        <v>899.0380000574814</v>
+        <v>396.0927374371013</v>
       </c>
       <c r="E8" t="n">
-        <v>465.2632552157767</v>
+        <v>366.3583966358005</v>
       </c>
       <c r="F8" t="n">
-        <v>37.39582562498438</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G8" t="n">
-        <v>37.39582562498438</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>37.39582562498438</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.97903625212439</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>472.2337237050422</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>929.8492973250815</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="L8" t="n">
-        <v>929.8492973250815</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>929.8492973250815</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>929.8492973250815</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>929.8492973250815</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1222.182174233124</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1679.797747853163</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1848.951812606219</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1848.951812606219</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1848.951812606219</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1848.951812606219</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>1848.951812606219</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W8" t="n">
-        <v>1848.136762057657</v>
+        <v>2523.873152685177</v>
       </c>
       <c r="X8" t="n">
-        <v>1833.034702677372</v>
+        <v>2104.730689264488</v>
       </c>
       <c r="Y8" t="n">
-        <v>1828.788983017429</v>
+        <v>1696.444565564141</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>543.1507812434172</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.6943200800595</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.6040312266127</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.4836165535664</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>164.099778169728</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.71468843591191</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.97903625212439</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>63.04270941258198</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.6010343787943</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>845.2166079988336</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1125.430446016554</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1125.430446016554</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1125.430446016554</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1125.430446016554</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1125.430446016554</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1583.046019636594</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.218797730933</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.763360179316</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.584716509918</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.248169509886</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1131.130651571886</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.8078973050797</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.9404615439596</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.4546823231804</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36.97903625212439</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>36.97903625212439</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>36.97903625212439</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>36.97903625212439</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>36.97903625212439</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G10" t="n">
-        <v>36.97903625212439</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
-        <v>36.97903625212439</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.97903625212439</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.97903625212439</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>36.97903625212439</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>455.1889180200854</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>912.8044916401246</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1355.063294797769</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1774.732544023551</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1848.951812606219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1848.951812606219</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1848.951812606219</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1689.710443904216</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1443.830997482671</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1165.397996735776</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>878.4424886062068</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>606.4160841924984</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>361.0243295259108</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.6046588400191</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2522.81684676063</v>
+        <v>2522.958394689265</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.674373944054</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.764589118498</v>
+        <v>1648.906137047133</v>
       </c>
       <c r="E11" t="n">
-        <v>1214.989844276793</v>
+        <v>1215.131392205428</v>
       </c>
       <c r="F11" t="n">
-        <v>787.1224146860009</v>
+        <v>787.2639626146356</v>
       </c>
       <c r="G11" t="n">
-        <v>385.7245833092647</v>
+        <v>385.866131237899</v>
       </c>
       <c r="H11" t="n">
-        <v>96.59442875248097</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I11" t="n">
-        <v>96.59442875248097</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J11" t="n">
-        <v>531.8491162053989</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.199408163577</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>1366.199408163577</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>1366.199408163577</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N11" t="n">
-        <v>2305.579045508694</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O11" t="n">
-        <v>3285.758712079</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P11" t="n">
-        <v>4114.068586912396</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q11" t="n">
-        <v>4660.567372870992</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R11" t="n">
-        <v>4829.721437624048</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4746.069563807885</v>
+        <v>4803.381259633332</v>
       </c>
       <c r="T11" t="n">
-        <v>4544.017409021714</v>
+        <v>4803.381259633332</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.017409021714</v>
+        <v>4544.158956950349</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.400458955541</v>
+        <v>4181.542006884175</v>
       </c>
       <c r="W11" t="n">
-        <v>3776.545004366574</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.402540945885</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.116417245538</v>
+        <v>2949.257965174173</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.7661737437737</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C12" t="n">
-        <v>496.309712580416</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D12" t="n">
-        <v>401.2194237269693</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E12" t="n">
-        <v>307.099009053923</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F12" t="n">
-        <v>223.7151706700846</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G12" t="n">
-        <v>138.3300809362685</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.59442875248097</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I12" t="n">
-        <v>122.6581019129386</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J12" t="n">
-        <v>447.2164268791509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1101.922473504874</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L12" t="n">
-        <v>1101.922473504874</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M12" t="n">
-        <v>1101.922473504874</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N12" t="n">
-        <v>1101.922473504874</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O12" t="n">
-        <v>1101.922473504874</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P12" t="n">
-        <v>1101.922473504874</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.66141213695</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.83419023129</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.378752679673</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.200109010274</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U12" t="n">
-        <v>1389.863562010243</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.746044072242</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.423289805436</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X12" t="n">
-        <v>850.5558540443161</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.0700748235369</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.0904658294123</v>
+        <v>1175.794137292996</v>
       </c>
       <c r="C13" t="n">
-        <v>774.5287543126373</v>
+        <v>1003.232425776221</v>
       </c>
       <c r="D13" t="n">
-        <v>608.65076151416</v>
+        <v>837.3544329777441</v>
       </c>
       <c r="E13" t="n">
-        <v>438.8927577648971</v>
+        <v>667.5964292284814</v>
       </c>
       <c r="F13" t="n">
-        <v>262.1857037266533</v>
+        <v>490.8893751902378</v>
       </c>
       <c r="G13" t="n">
-        <v>96.59442875248097</v>
+        <v>325.2981002160654</v>
       </c>
       <c r="H13" t="n">
-        <v>96.59442875248097</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I13" t="n">
-        <v>96.59442875248097</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J13" t="n">
-        <v>183.1741139171708</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K13" t="n">
-        <v>457.9325684883065</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.1424502562675</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.62631743718</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N13" t="n">
-        <v>1777.885120594825</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.554369820606</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.061263790948</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.254038655281</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.254038655281</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.014869612596</v>
+        <v>2651.692136662472</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.135423191051</v>
+        <v>2405.812690240927</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.702422444157</v>
+        <v>2127.379689494032</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.746914314587</v>
+        <v>1840.424181364463</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.720509900879</v>
+        <v>1840.424181364463</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.328755234291</v>
+        <v>1595.032426697875</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.9090845484</v>
+        <v>1367.612756011983</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.361224717019</v>
+        <v>2523.375184062125</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.218751900442</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.308967074887</v>
+        <v>1649.322926419993</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.534222233182</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6667926423897</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2689612656536</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>97.13880670886959</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I14" t="n">
-        <v>96.7220173360096</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9767047889276</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.326996747106</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.386962999965</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>2481.112539438182</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N14" t="n">
-        <v>2481.112539438182</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O14" t="n">
-        <v>3461.292206008488</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P14" t="n">
-        <v>4289.602080841884</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.10086680048</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.10086680048</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4803.784089661086</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4803.784089661086</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.561786978103</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.944836911929</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.089382322963</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.946918902273</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.660795201927</v>
+        <v>2949.674754547033</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.8937623273024</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4373011639447</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3470123104979</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2265976374516</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8427592536132</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4576695197971</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.7220173360096</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7856904964672</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3440154626795</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.050062088403</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.050062088403</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.050062088403</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.050062088403</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.050062088403</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.789000720479</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.961778814818</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.506341263201</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.327697593803</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.991150593771</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.873632655771</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.550878388965</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6834426278448</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.1976634070655</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>944.0394021609975</v>
+        <v>806.2298140987274</v>
       </c>
       <c r="C16" t="n">
-        <v>771.4776906442224</v>
+        <v>660.9340967638054</v>
       </c>
       <c r="D16" t="n">
-        <v>605.5996978457451</v>
+        <v>495.0561039653281</v>
       </c>
       <c r="E16" t="n">
-        <v>435.8416940964823</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="F16" t="n">
-        <v>259.1346400582386</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="G16" t="n">
-        <v>259.1346400582386</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H16" t="n">
-        <v>119.2324657486131</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I16" t="n">
-        <v>96.7220173360096</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3017025006995</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K16" t="n">
-        <v>458.060157071835</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L16" t="n">
-        <v>876.270038839796</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.753906020709</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.012709178354</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.681958404135</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.188852374477</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.381627238809</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.963805944181</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2691.963805944181</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.084359522637</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U16" t="n">
-        <v>2167.651358775742</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V16" t="n">
-        <v>1880.695850646172</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W16" t="n">
-        <v>1608.669446232464</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X16" t="n">
-        <v>1363.277691565876</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y16" t="n">
-        <v>1135.858020879985</v>
+        <v>998.0484328177145</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2523.361224717019</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C17" t="n">
-        <v>2085.218751900442</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D17" t="n">
-        <v>1649.308967074887</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.534222233182</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F17" t="n">
-        <v>787.6667926423897</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G17" t="n">
-        <v>386.2689612656539</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>97.13880670886959</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I17" t="n">
-        <v>96.7220173360096</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J17" t="n">
-        <v>531.9767047889276</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K17" t="n">
-        <v>1366.326996747106</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L17" t="n">
-        <v>2441.386962999965</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>2481.112539438182</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N17" t="n">
-        <v>2481.112539438182</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O17" t="n">
-        <v>3461.292206008488</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P17" t="n">
-        <v>4289.602080841884</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q17" t="n">
-        <v>4836.10086680048</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.10086680048</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S17" t="n">
-        <v>4836.10086680048</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T17" t="n">
-        <v>4616.033639673518</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U17" t="n">
-        <v>4356.811336990535</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V17" t="n">
-        <v>4181.944836911929</v>
+        <v>3911.240480363479</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.089382322963</v>
+        <v>3506.385025774512</v>
       </c>
       <c r="X17" t="n">
-        <v>3357.946918902273</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.660795201927</v>
+        <v>2678.956438653476</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>602.8937623273024</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C18" t="n">
-        <v>496.4373011639447</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D18" t="n">
-        <v>401.3470123104979</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E18" t="n">
-        <v>307.2265976374516</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F18" t="n">
-        <v>223.8427592536132</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G18" t="n">
-        <v>138.4576695197971</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.7220173360096</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I18" t="n">
-        <v>122.7856904964672</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J18" t="n">
-        <v>447.3440154626795</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K18" t="n">
-        <v>1102.050062088403</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L18" t="n">
-        <v>1102.050062088403</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M18" t="n">
-        <v>1102.050062088403</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N18" t="n">
-        <v>1102.050062088403</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O18" t="n">
-        <v>1102.050062088403</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P18" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q18" t="n">
-        <v>1642.789000720479</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R18" t="n">
-        <v>1759.961778814818</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S18" t="n">
-        <v>1696.506341263201</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T18" t="n">
-        <v>1566.327697593803</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U18" t="n">
-        <v>1389.991150593771</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V18" t="n">
-        <v>1190.873632655771</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W18" t="n">
-        <v>1005.550878388965</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X18" t="n">
-        <v>850.6834426278448</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y18" t="n">
-        <v>724.1976634070655</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>944.0394021609972</v>
+        <v>1087.134188067672</v>
       </c>
       <c r="C19" t="n">
-        <v>771.4776906442221</v>
+        <v>914.5724765508969</v>
       </c>
       <c r="D19" t="n">
-        <v>605.5996978457448</v>
+        <v>748.6944837524195</v>
       </c>
       <c r="E19" t="n">
-        <v>490.8754158451321</v>
+        <v>578.9364800031568</v>
       </c>
       <c r="F19" t="n">
-        <v>490.8754158451321</v>
+        <v>402.229425964913</v>
       </c>
       <c r="G19" t="n">
-        <v>325.2841408709598</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H19" t="n">
-        <v>185.3819665613343</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I19" t="n">
-        <v>96.7220173360096</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J19" t="n">
-        <v>183.3017025006995</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K19" t="n">
-        <v>458.060157071835</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L19" t="n">
-        <v>876.270038839796</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.753906020709</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N19" t="n">
-        <v>1778.012709178354</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O19" t="n">
-        <v>2197.681958404135</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P19" t="n">
-        <v>2545.188852374477</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q19" t="n">
-        <v>2713.381627238809</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2691.963805944181</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2691.963805944181</v>
+        <v>2607.638921164964</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.084359522636</v>
+        <v>2361.759474743419</v>
       </c>
       <c r="U19" t="n">
-        <v>2167.651358775741</v>
+        <v>2083.326473996525</v>
       </c>
       <c r="V19" t="n">
-        <v>1880.695850646172</v>
+        <v>1796.370965866955</v>
       </c>
       <c r="W19" t="n">
-        <v>1608.669446232464</v>
+        <v>1524.344561453247</v>
       </c>
       <c r="X19" t="n">
-        <v>1363.277691565876</v>
+        <v>1278.952806786659</v>
       </c>
       <c r="Y19" t="n">
-        <v>1135.858020879984</v>
+        <v>1278.952806786659</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2511.181203596271</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C20" t="n">
-        <v>2073.038730779694</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D20" t="n">
-        <v>1637.128945954139</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E20" t="n">
-        <v>1203.354201112434</v>
+        <v>944.8298656847302</v>
       </c>
       <c r="F20" t="n">
-        <v>775.4867715216423</v>
+        <v>516.9624360939379</v>
       </c>
       <c r="G20" t="n">
-        <v>374.0889401449061</v>
+        <v>115.5646047172018</v>
       </c>
       <c r="H20" t="n">
-        <v>97.13880670886957</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I20" t="n">
-        <v>96.72201733600957</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J20" t="n">
-        <v>531.9767047889275</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K20" t="n">
-        <v>1366.326996747106</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L20" t="n">
-        <v>2441.386962999965</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>2481.112539438181</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="N20" t="n">
-        <v>2481.112539438181</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O20" t="n">
-        <v>3461.292206008487</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P20" t="n">
-        <v>4289.602080841883</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q20" t="n">
-        <v>4836.100866800479</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.100866800479</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4752.448992984316</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
-        <v>4532.381765857354</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U20" t="n">
-        <v>4532.381765857354</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V20" t="n">
-        <v>4169.764815791181</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W20" t="n">
-        <v>3764.909361202214</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X20" t="n">
-        <v>3345.766897781525</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y20" t="n">
-        <v>2937.480774081178</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>602.8937623273024</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C21" t="n">
-        <v>496.4373011639447</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D21" t="n">
-        <v>401.3470123104979</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E21" t="n">
-        <v>307.2265976374516</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F21" t="n">
-        <v>223.8427592536132</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G21" t="n">
-        <v>138.4576695197971</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.72201733600957</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I21" t="n">
-        <v>122.7856904964672</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J21" t="n">
-        <v>447.3440154626795</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K21" t="n">
-        <v>447.3440154626795</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L21" t="n">
-        <v>447.3440154626795</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M21" t="n">
-        <v>447.3440154626795</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N21" t="n">
-        <v>447.3440154626795</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O21" t="n">
-        <v>447.3440154626795</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P21" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q21" t="n">
-        <v>1642.789000720479</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R21" t="n">
-        <v>1759.961778814818</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S21" t="n">
-        <v>1696.506341263201</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T21" t="n">
-        <v>1566.327697593803</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U21" t="n">
-        <v>1389.991150593771</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V21" t="n">
-        <v>1190.873632655771</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W21" t="n">
-        <v>1005.550878388965</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X21" t="n">
-        <v>850.6834426278448</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y21" t="n">
-        <v>724.1976634070655</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>947.218054412941</v>
+        <v>844.324869520347</v>
       </c>
       <c r="C22" t="n">
-        <v>774.6563428961658</v>
+        <v>671.7631580035719</v>
       </c>
       <c r="D22" t="n">
-        <v>608.7783500976885</v>
+        <v>671.7631580035719</v>
       </c>
       <c r="E22" t="n">
-        <v>439.0203463484257</v>
+        <v>502.0051542543091</v>
       </c>
       <c r="F22" t="n">
-        <v>262.3132923101819</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="G22" t="n">
-        <v>96.72201733600957</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H22" t="n">
-        <v>96.72201733600957</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I22" t="n">
-        <v>96.72201733600957</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J22" t="n">
-        <v>183.3017025006994</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K22" t="n">
-        <v>458.060157071835</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L22" t="n">
-        <v>876.270038839796</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.753906020709</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N22" t="n">
-        <v>1778.012709178354</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O22" t="n">
-        <v>2197.681958404135</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P22" t="n">
-        <v>2545.188852374477</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q22" t="n">
-        <v>2713.381627238809</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2713.381627238809</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2554.140258536806</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T22" t="n">
-        <v>2449.26301177458</v>
+        <v>2346.369826881986</v>
       </c>
       <c r="U22" t="n">
-        <v>2170.830011027685</v>
+        <v>2067.936826135091</v>
       </c>
       <c r="V22" t="n">
-        <v>1883.874502898116</v>
+        <v>1780.981318005521</v>
       </c>
       <c r="W22" t="n">
-        <v>1611.848098484407</v>
+        <v>1508.954913591813</v>
       </c>
       <c r="X22" t="n">
-        <v>1366.45634381782</v>
+        <v>1263.563158925226</v>
       </c>
       <c r="Y22" t="n">
-        <v>1139.036673131928</v>
+        <v>1036.143488239334</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>970.9960463903952</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>798.4343348736202</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>632.5563420751434</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>462.7983383258806</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>330.8229638057298</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
         <v>330.8229638057298</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1907.65249487557</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W25" t="n">
-        <v>1635.626090461862</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X25" t="n">
-        <v>1390.234335795274</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>1162.814665109382</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6212,37 +6212,37 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>605.8694973157604</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>1680.92946356862</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>2837.977298779171</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N26" t="n">
-        <v>3963.708282215618</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
         <v>4943.887948785924</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1362.151784991544</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>1362.151784991544</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
         <v>1648.327823655249</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477109</v>
+        <v>970.9960463903953</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309358</v>
+        <v>798.4343348736203</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324585</v>
+        <v>632.556342075143</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258803</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>286.0912842876364</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1003.573296407379</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309358</v>
+        <v>831.0115848906041</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>665.1335920921267</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>495.375588342864</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>318.6685343046202</v>
       </c>
       <c r="G31" t="n">
+        <v>153.0772593304479</v>
+      </c>
+      <c r="H31" t="n">
+        <v>153.0772593304479</v>
+      </c>
+      <c r="I31" t="n">
         <v>102.2608402707796</v>
       </c>
-      <c r="H31" t="n">
-        <v>102.2608402707796</v>
-      </c>
-      <c r="I31" t="n">
-        <v>102.2608402707801</v>
-      </c>
       <c r="J31" t="n">
-        <v>188.8405254354699</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>463.5989800066055</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745666</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>1341.29272895548</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
         <v>1783.551532113124</v>
@@ -6649,22 +6649,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050032</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6780,19 +6780,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6835,13 +6835,13 @@
         <v>952.7568773477109</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
         <v>267.852115244952</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707797</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688195</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321679</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.13136353223</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968676</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538983</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538983</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538983</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538983</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.39013972282</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595859</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912875</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846702</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257735</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837046</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -6990,10 +6990,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.4325852620725</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987148</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
         <v>406.885835245268</v>
@@ -7005,10 +7005,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
         <v>128.3245134312372</v>
@@ -7038,16 +7038,16 @@
         <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.500601749589</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1702.045164197972</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.529973528542</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
         <v>1196.412455590541</v>
@@ -7056,10 +7056,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>856.2222655626149</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.7364863418356</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477105</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309359</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
         <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354693</v>
       </c>
       <c r="K37" t="n">
-        <v>463.5989800066051</v>
+        <v>463.5989800066049</v>
       </c>
       <c r="L37" t="n">
-        <v>881.8088617745661</v>
+        <v>881.808861774566</v>
       </c>
       <c r="M37" t="n">
         <v>1341.292728955479</v>
@@ -7129,7 +7129,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
         <v>1617.386921419177</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2525.85493345824</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2088.129250014523</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.636254561828</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1219.278299092983</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>791.8276588750507</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>390.8466168711747</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.3879391401689</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.738231098347</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.798197351206</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.798197351206</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
-        <v>2582.520192247198</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3562.699858817504</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4391.009733650901</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4937.508519609495</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5023.427499919248</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4803.777062165147</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4544.971548855024</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4182.77138816171</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3778.332722945603</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3359.607048897774</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2951.737714570288</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.7582466617393</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>128.1969248477086</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>950.5453418998823</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>778.4004197559672</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>612.9392163303498</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>443.5980019539471</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>267.3077372885633</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>189.1214321162808</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>464.2883819517565</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>882.9067589840579</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.466419851296</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2563.236244375628</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2317.773587326943</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2039.757375952909</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1885.534632893617</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.925017852769</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1368.950052559041</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1141.947171246009</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2525.85493345824</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.129250014524</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.636254561828</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1219.278299092983</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>791.8276588750509</v>
+        <v>793.2056155771602</v>
       </c>
       <c r="G41" t="n">
-        <v>390.8466168711748</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H41" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>537.3879391401689</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.738231098347</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.798197351206</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.798197351206</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N41" t="n">
-        <v>2751.674257000254</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3731.853923570561</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4560.163798403957</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5106.662584362552</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5023.427499919248</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4803.777062165147</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4544.971548855024</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4182.77138816171</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3778.332722945604</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3359.607048897774</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2951.737714570288</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>406.7582466617393</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>128.1969248477086</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L42" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M42" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N42" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O42" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P42" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.5453418998826</v>
+        <v>952.756877347711</v>
       </c>
       <c r="C43" t="n">
-        <v>778.4004197559675</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D43" t="n">
-        <v>612.9392163303501</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E43" t="n">
-        <v>443.5980019539472</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>267.3077372885634</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>189.1214321162809</v>
+        <v>188.8405254354693</v>
       </c>
       <c r="K43" t="n">
-        <v>464.2883819517565</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L43" t="n">
-        <v>882.9067589840578</v>
+        <v>881.8088617745663</v>
       </c>
       <c r="M43" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.466419851296</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2695.552220073047</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2450.089563024362</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2172.073351650327</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1885.534632893618</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.925017852769</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1368.950052559042</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1141.94717124601</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2525.85493345824</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2088.129250014524</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1652.636254561828</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1219.278299092983</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>791.8276588750509</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>390.8466168711749</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>102.1332516872511</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>537.3879391401689</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1371.738231098347</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2446.798197351206</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2446.798197351206</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N44" t="n">
-        <v>2582.520192247198</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3562.699858817504</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4391.009733650901</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4937.508519609495</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5023.427499919248</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4803.777062165147</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4544.971548855024</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4182.77138816171</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3778.332722945604</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>3359.607048897774</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2951.737714570288</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>406.7582466617393</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>128.1969248477086</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L45" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M45" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N45" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O45" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P45" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>950.5453418998823</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>778.4004197559673</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>612.93921633035</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>443.5980019539471</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>267.3077372885634</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>189.1214321162809</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>464.2883819517565</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>882.9067589840578</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.466419851295</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2695.552220073047</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2450.089563024362</v>
+        <v>2313.799635050032</v>
       </c>
       <c r="U46" t="n">
-        <v>2172.073351650327</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V46" t="n">
-        <v>1885.534632893617</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.925017852769</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1368.950052559041</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1141.947171246009</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>40.34758805804177</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>613.8410568773353</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773352</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773352</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213854725</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>44.81797281351191</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>462.2379531515548</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>295.2857342505475</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>462.2379531515548</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>462.2379531515548</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>283.0442808259806</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>462.2379531515548</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,16 +8608,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>462.2379531515548</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8626,10 +8626,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>74.96895816431174</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>948.8683205506236</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>40.12684488708828</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,7 +9170,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>40.12684488708828</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9407,7 +9407,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>40.12684488708737</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9486,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>69.04441372935651</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9951,7 +9951,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9963,16 +9963,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
-        <v>289.0667057209139</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10428,7 +10428,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465049</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>137.0929241373656</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>307.9556158071196</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11303,10 +11303,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>137.0929241373656</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>49.73195639979859</v>
       </c>
       <c r="T11" t="n">
-        <v>17.83492161738266</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627259</v>
+        <v>96.56253959275429</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.82174571000132</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>268.0111327346202</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>26.99333424003481</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>65.48800580459394</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>267.5985112554894</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>185.8729454876923</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23896,10 +23896,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>54.48338453116351</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>52.94985625022255</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -23984,10 +23984,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>12.05822090953968</v>
+        <v>267.5985112554902</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>139.5921776627252</v>
+        <v>37.71410486740254</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24373,10 +24373,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>44.28436272291197</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,10 +24421,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>102.986369995734</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627254</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>37.46509486399987</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>139.592177662725</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.0905310873978</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.36072825393998</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>20.79102160255041</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>130.9928159404434</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.0905310873979</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.36072825394005</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>20.79102160255047</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>130.9928159404448</v>
+        <v>139.5921776627256</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.0905310873979</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.36072825394005</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>20.79102160255047</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>130.9928159404439</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>743334.7114446629</v>
+        <v>745278.5644750004</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>743334.7114446629</v>
+        <v>745829.0118561963</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>743723.8210492356</v>
+        <v>745829.0118561963</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>707224.5826419775</v>
+        <v>707990.0617305345</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>707914.5707864327</v>
+        <v>707990.0617305347</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>707914.5707864327</v>
+        <v>707990.0617305347</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>707914.5707864327</v>
+        <v>707990.0617305347</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>737868.0513685693</v>
+        <v>737868.0513685694</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>737868.0513685694</v>
+        <v>737868.0513685693</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>737868.0513685694</v>
+        <v>737868.0513685696</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>738180.113000748</v>
+        <v>737868.0513685694</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>738180.113000748</v>
+        <v>737868.0513685694</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>738180.113000748</v>
+        <v>737868.0513685694</v>
       </c>
     </row>
   </sheetData>
@@ -26320,16 +26320,16 @@
         <v>201055.2449589032</v>
       </c>
       <c r="E2" t="n">
-        <v>189366.4970123399</v>
+        <v>189571.4617393786</v>
       </c>
       <c r="F2" t="n">
-        <v>189551.2482796211</v>
+        <v>189571.4617393786</v>
       </c>
       <c r="G2" t="n">
-        <v>189551.2482796211</v>
+        <v>189571.4617393787</v>
       </c>
       <c r="H2" t="n">
-        <v>189551.2482796212</v>
+        <v>189571.4617393786</v>
       </c>
       <c r="I2" t="n">
         <v>197571.5940515071</v>
@@ -26347,13 +26347,13 @@
         <v>197571.5940515071</v>
       </c>
       <c r="N2" t="n">
-        <v>197660.1290869443</v>
+        <v>197571.5940515071</v>
       </c>
       <c r="O2" t="n">
-        <v>197660.1290869441</v>
+        <v>197571.5940515071</v>
       </c>
       <c r="P2" t="n">
-        <v>197660.1290869442</v>
+        <v>197571.5940515071</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039032</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390635</v>
       </c>
       <c r="D3" t="n">
-        <v>11785.95316599745</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>222498.0582746434</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
-        <v>456.9680810515592</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18411.11667046233</v>
+        <v>18364.71563283946</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856135</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.0085678449</v>
       </c>
       <c r="L3" t="n">
-        <v>9602.802925459428</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>185704.9284082359</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
-        <v>330.0971833051415</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175300.2398651109</v>
+        <v>133864.3835971963</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.239865111</v>
+        <v>122130.8532251353</v>
       </c>
       <c r="D4" t="n">
-        <v>167005.8423999172</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
-        <v>13653.60587920147</v>
+        <v>13668.38414064833</v>
       </c>
       <c r="F4" t="n">
-        <v>13666.9267201577</v>
+        <v>13668.38414064833</v>
       </c>
       <c r="G4" t="n">
-        <v>13666.92672015767</v>
+        <v>13668.38414064833</v>
       </c>
       <c r="H4" t="n">
-        <v>13666.9267201577</v>
+        <v>13668.38414064833</v>
       </c>
       <c r="I4" t="n">
         <v>14245.20557049264</v>
@@ -26448,16 +26448,16 @@
         <v>14245.20557049264</v>
       </c>
       <c r="M4" t="n">
-        <v>14245.20557049265</v>
+        <v>14245.20557049259</v>
       </c>
       <c r="N4" t="n">
-        <v>14648.85760080242</v>
+        <v>14245.2055704926</v>
       </c>
       <c r="O4" t="n">
-        <v>14648.85760080236</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="P4" t="n">
-        <v>14648.85760080236</v>
+        <v>14245.20557049264</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814198</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61731.66755161453</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73411.76585188553</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="F5" t="n">
-        <v>73508.73317536729</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="G5" t="n">
-        <v>73508.73317536729</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="H5" t="n">
-        <v>73508.73317536728</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579255</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77655.95995743989</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77655.95995743987</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77655.95995743987</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-175861.08370314</v>
+        <v>-209470.5314003383</v>
       </c>
       <c r="C6" t="n">
-        <v>-33669.78304343009</v>
+        <v>-12628.67720189612</v>
       </c>
       <c r="D6" t="n">
-        <v>-39468.21815862604</v>
+        <v>4711.867172010257</v>
       </c>
       <c r="E6" t="n">
-        <v>-120196.9329933904</v>
+        <v>-59427.89844382843</v>
       </c>
       <c r="F6" t="n">
-        <v>101918.6203030445</v>
+        <v>102307.1767662859</v>
       </c>
       <c r="G6" t="n">
-        <v>102375.5883840961</v>
+        <v>102307.176766286</v>
       </c>
       <c r="H6" t="n">
-        <v>102375.5883840962</v>
+        <v>102307.1767662859</v>
       </c>
       <c r="I6" t="n">
-        <v>87197.03320475962</v>
+        <v>87220.20990299986</v>
       </c>
       <c r="J6" t="n">
-        <v>-5406.315469768262</v>
+        <v>-55022.90394977423</v>
       </c>
       <c r="K6" t="n">
-        <v>105608.1498752219</v>
+        <v>91770.91696799445</v>
       </c>
       <c r="L6" t="n">
-        <v>96005.34694976252</v>
+        <v>105584.9255358393</v>
       </c>
       <c r="M6" t="n">
-        <v>-80096.77853301396</v>
+        <v>-29405.01907716408</v>
       </c>
       <c r="N6" t="n">
-        <v>105025.2143453968</v>
+        <v>105584.9255358393</v>
       </c>
       <c r="O6" t="n">
-        <v>105355.3115287019</v>
+        <v>105584.9255358393</v>
       </c>
       <c r="P6" t="n">
-        <v>105355.3115287019</v>
+        <v>105584.9255358393</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4126214791314269</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773353</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>462.2379531515548</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1207.430359406012</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.02521670012</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
-        <v>1209.02521670012</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="H4" t="n">
-        <v>1209.02521670012</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4126214791314269</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773353</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052166</v>
       </c>
       <c r="D4" t="n">
-        <v>37.94209563145046</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>745.1924062544572</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
-        <v>1.594857294107896</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.23528668462563</v>
+        <v>69.06079487080547</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773353</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052166</v>
       </c>
       <c r="L4" t="n">
-        <v>37.94209563145046</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>745.1924062544576</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773353</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052166</v>
       </c>
       <c r="L4" t="n">
-        <v>37.94209563145046</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>745.1924062544572</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
-        <v>1.594857294107896</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>393.3912982159421</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27439,13 +27439,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>400</v>
       </c>
-      <c r="X2" t="n">
-        <v>80.16596111500928</v>
-      </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,22 +27585,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>15.55871974923707</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>205.1590987941858</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>91.86674006413773</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>124.9507141550199</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>53.97939648516331</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>117.7661826744367</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>366.8948367154214</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27913,13 +27913,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>338.8964581122902</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>94.24106616978146</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>84.63380825304843</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -28029,7 +28029,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.4126214791314269</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4126214791314269</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4126214791314269</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4126214791314269</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4126214791314269</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4126214791314269</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4126214791314269</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791314269</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0.4126214791314269</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.4126214791314269</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4126214791314269</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4126214791314269</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0.4126214791314269</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.4126214791314269</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.4126214791314269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4126214791314269</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4126214791314269</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4126214791314269</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4126214791314269</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4126214791314269</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4126214791314269</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4126214791314269</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4126214791314269</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4126214791314269</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4126214791314269</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4126214791314269</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4126214791314269</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.4126214791314269</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.4126214791314269</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0.4126214791314269</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4126214791314269</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4126214791314269</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.4126214791314269</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.4126214791314269</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.4126214791314269</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4126214791314269</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.4126214791314269</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.4126214791314269</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.4126214791314269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>40.34758805804177</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>613.8410568773353</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773352</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773352</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213854725</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>44.81797281351191</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>462.2379531515548</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>295.2857342505475</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>462.2379531515548</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697542</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>462.2379531515548</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>283.0442808259806</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>462.2379531515548</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>462.2379531515548</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>446.7260637956007</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>74.96895816431174</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>948.8683205506236</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35574,13 +35574,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -35653,7 +35653,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>40.12684488708828</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35662,13 +35662,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35808,16 +35808,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -35890,7 +35890,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>40.12684488708828</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35899,13 +35899,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36045,16 +36045,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36121,13 +36121,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>40.12684488708737</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36215,7 +36215,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>69.04441372935651</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
         <v>170.862691669754</v>
@@ -36671,7 +36671,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36683,16 +36683,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
-        <v>289.0667057209139</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36765,10 +36765,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165075</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
         <v>169.8916917821539</v>
@@ -37148,7 +37148,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465049</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908053</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>137.0929241373656</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37637,7 +37637,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.86684891821187</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.9464139752281</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.846845487173</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,10 +37786,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>307.9556158071196</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37874,7 +37874,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.86684891821204</v>
+        <v>87.45422743908053</v>
       </c>
       <c r="K43" t="n">
-        <v>277.9464139752279</v>
+        <v>277.5337924960968</v>
       </c>
       <c r="L43" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.5377398436901</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
-        <v>447.1386852747319</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>424.3209540304256</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
-        <v>351.4296860956383</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q43" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,10 +38023,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>137.0929241373656</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38111,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.86684891821204</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.9464139752279</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.5377398436899</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>447.1386852747319</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>424.3209540304263</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
